--- a/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,06</t>
+          <t>-2,86; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,12</t>
+          <t>-2,78; 3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,97</t>
+          <t>-2,96; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,61</t>
+          <t>-0,71; 6,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,49</t>
+          <t>-1,82; 2,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,19</t>
+          <t>-0,94; 4,11</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-64,43%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>180,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,75%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>81,05%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,91</t>
+          <t>-80,7; 507,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-87,32; 88,84</t>
+          <t>-84,42; 559,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 584,87</t>
+          <t>-63,89; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,44; 60,95</t>
+          <t>-68,69; 338,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 101,87</t>
+          <t>-45,01; 506,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,47</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,04</t>
+          <t>-3,78; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,63</t>
+          <t>-3,11; 1,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,78</t>
+          <t>-1,47; 1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,72</t>
+          <t>-1,28; 2,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,86</t>
+          <t>-2,22; 0,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,11</t>
+          <t>-1,72; 1,19</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>-64,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>-34,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>180,67%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>-41,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>-12,05%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,7; 507,16</t>
+          <t>-100,0; 42,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,42; 559,78</t>
+          <t>-87,32; 88,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,89; —</t>
+          <t>-76,14; 584,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 338,56</t>
+          <t>-81,44; 60,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 506,4</t>
+          <t>-64,34; 101,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 6,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 26,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 22,93</t>
+          <t>0,0; 79,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 8,71</t>
+          <t>0,0; 64,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-63,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>194,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,58%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,65; 494,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,04</t>
+          <t>-7,72; 2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,63</t>
+          <t>-5,67; 5,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,78</t>
+          <t>-1,57; 6,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,72</t>
+          <t>-1,15; 9,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,86</t>
+          <t>-3,78; 2,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,11</t>
+          <t>-2,19; 5,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>-42,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>103,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>180,67%</t>
+          <t>186,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>41,25%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,7; 507,16</t>
+          <t>-89,09; 157,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,42; 559,78</t>
+          <t>-72,98; 252,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,69; 338,56</t>
+          <t>-74,12; 161,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 506,4</t>
+          <t>-49,39; 244,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>1,01</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,06</t>
+          <t>-0,62; 4,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,12</t>
+          <t>-1,36; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,97</t>
+          <t>-4,75; 0,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,61</t>
+          <t>-1,62; 4,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,49</t>
+          <t>-1,62; 1,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,19</t>
+          <t>-0,68; 2,83</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-64,43%</t>
+          <t>191,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-65,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>105,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,75%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>93,85%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,32; 88,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 584,87</t>
+          <t>-83,38; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,44; 60,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 101,87</t>
+          <t>-50,69; 1242,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,79</t>
+          <t>-4,99; -0,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,56</t>
+          <t>-4,33; 2,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,79</t>
+          <t>-1,95; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,06</t>
+          <t>-2,17; 1,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,73</t>
+          <t>-3,04; 0,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,51</t>
+          <t>-2,47; 1,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>-71,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,11%</t>
+          <t>-35,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,9%</t>
+          <t>-48,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>-32,15%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 40,49</t>
+          <t>-100,0; 97,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 83,44</t>
+          <t>-86,03; 135,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 313,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 454,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 48,28</t>
+          <t>-85,49; 46,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 94,41</t>
+          <t>-79,05; 96,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 0,62</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 1,43</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 1,94</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 3,27</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 0,72</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-40,5%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>82,66%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-22,9%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-73,9; 49,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-64,81; 75,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-63,02; 290,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-31,27; 498,18</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-58,79; 57,1</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,95; 108,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,52</t>
+          <t>0,0; 76,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,79</t>
+          <t>0,0; 65,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,4</t>
+          <t>-8,15; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,86</t>
+          <t>-6,17; 5,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,7</t>
+          <t>-1,88; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 9,81</t>
+          <t>-0,98; 11,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,7</t>
+          <t>-3,34; 2,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,49</t>
+          <t>-2,18; 5,63</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 157,34</t>
+          <t>-89,35; 115,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 252,62</t>
+          <t>-77,97; 232,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,12; 161,56</t>
+          <t>-72,83; 125,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 244,96</t>
+          <t>-52,14; 278,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,18</t>
+          <t>-1,23; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,0</t>
+          <t>-1,83; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 0,54</t>
+          <t>-5,04; 0,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,46</t>
+          <t>-2,07; 4,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,83</t>
+          <t>-1,52; 1,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,83</t>
+          <t>-1,0; 2,71</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,38; —</t>
+          <t>-84,16; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,69; 1242,11</t>
+          <t>-65,77; —</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,07</t>
+          <t>-5,01; -0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,0</t>
+          <t>-4,22; 1,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,55</t>
+          <t>-1,79; 2,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,8</t>
+          <t>-2,15; 2,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,5</t>
+          <t>-2,83; 0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,18</t>
+          <t>-2,37; 1,16</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,99</t>
+          <t>-100,0; 37,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 135,38</t>
+          <t>-88,54; 99,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,49; 46,02</t>
+          <t>-82,94; 53,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 96,16</t>
+          <t>-77,02; 86,69</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,62</t>
+          <t>-3,21; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,43</t>
+          <t>-2,61; 1,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,94</t>
+          <t>-1,24; 1,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,27</t>
+          <t>-0,43; 3,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,72</t>
+          <t>-1,67; 0,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-1,21; 1,6</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 49,8</t>
+          <t>-75,69; 36,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 75,53</t>
+          <t>-64,1; 62,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 290,39</t>
+          <t>-68,26; 261,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 498,18</t>
+          <t>-28,2; 446,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 57,1</t>
+          <t>-57,54; 52,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 108,21</t>
+          <t>-45,38; 95,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,17 +601,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>18,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 76,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,87</t>
+          <t>0,0; 65,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-2,38</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 2,51</t>
+          <t>-1,7; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 5,5</t>
+          <t>-1,49; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,63</t>
+          <t>-7,45; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 11,42</t>
+          <t>-5,8; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,57</t>
+          <t>-3,63; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,63</t>
+          <t>-2,52; 5,49</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>103,31%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>186,95%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-42,72%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>103,31%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>186,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,35; 115,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,97; 232,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,78; 111,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,42; 203,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 125,12</t>
+          <t>-74,63; 145,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 278,77</t>
+          <t>-60,67; 262,84</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,93</t>
+          <t>-4,72; 0,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,88</t>
+          <t>-1,99; 4,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,54</t>
+          <t>-0,73; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,64</t>
+          <t>-1,24; 2,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,87</t>
+          <t>-1,64; 2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,71</t>
+          <t>-0,82; 2,73</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-65,48%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105,75%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>191,64%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>54,76%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-65,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>105,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,89; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,77; —</t>
+          <t>-56,23; 832,95</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,45</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-1,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -0,1</t>
+          <t>-1,79; 2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,64</t>
+          <t>-2,18; 1,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,56</t>
+          <t>-5,33; -0,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,13</t>
+          <t>-4,37; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,53</t>
+          <t>-3,07; 0,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,16</t>
+          <t>-2,63; 1,28</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-16,53%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-71,34%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-35,81%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-16,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-88,54; 99,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 59,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,94; 107,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,94; 53,45</t>
+          <t>-88,79; 60,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,02; 86,69</t>
+          <t>-78,14; 99,54</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-1,24</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,45</t>
+          <t>-1,17; 1,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,31</t>
+          <t>-0,49; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,9</t>
+          <t>-3,14; 0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,02</t>
+          <t>-2,63; 1,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,8</t>
+          <t>-1,69; 0,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,6</t>
+          <t>-1,08; 1,51</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>82,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-40,5%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-21,11%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>82,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,69; 36,29</t>
+          <t>-62,92; 313,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 62,77</t>
+          <t>-37,11; 454,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 261,97</t>
+          <t>-76,29; 40,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 446,67</t>
+          <t>-66,26; 83,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 52,47</t>
+          <t>-60,39; 48,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 95,04</t>
+          <t>-37,48; 94,41</t>
         </is>
       </c>
     </row>
